--- a/similarities/split_global/harmonic_similarity_timestamps_339.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_339.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:23.800000', '0:00:54.300000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:10.820000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:10.953139', '0:00:25.477221')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:04.605000', '0:00:21.095000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=120.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G/5']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.434000', '0:00:22.378000')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=46.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:58.350000', '0:01:04.070000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:04:32.560000', '0:04:34.520000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=58.35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=272.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'E'], ['F#', 'B', 'F#', 'B'], ['B', 'F#', 'B', 'F#']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Ab'], ['Bb', 'Eb', 'Bb', 'Eb'], ['Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:45.875873'), ('0:02:32.583174', '0:02:37.900544'), ('0:02:31.259637', '0:02:36.565396')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:08.359000', '0:00:15.006000'), ('0:00:07.702000', '0:00:13.688000'), ('0:00:18.932000', '0:00:23.992000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=152.583174', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_140</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min'], ['C:7', 'F:min', 'G:hdim7']]</t>
+          <t>['G:7', 'G:(3,5,b7,b9)/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['G:7', 'C:min', 'D:hdim7/C']]</t>
+          <t>['G:7/C', 'G:(3,5,b7,b9)/C', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:05.900000'), ('0:01:05.820000', '0:01:17.640000')]</t>
+          <t>('0:02:19.760000', '0:02:22.680000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:27.600000', '0:00:36.220000')]</t>
+          <t>('0:00:05.500000', '0:00:22.220000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6', 'https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=139.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=5.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'E:min']]</t>
+          <t>['F/5', 'C:maj', 'D:min7/b7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'Eb:7', 'Ab'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'F:min']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.480000', '0:00:13.640000'), ('0:01:08.820000', '0:01:17.920000'), ('0:00:07.460000', '0:00:15.880000')]</t>
+          <t>('0:00:04.555000', '0:00:10.619000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.650000', '0:00:06.290000'), ('0:00:25.220000', '0:00:27.170000'), ('0:00:45.320000', '0:00:48.590000')]</t>
+          <t>('0:01:04.220000', '0:01:06.980000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=6.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=7.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=4.555</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=64.22</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:29.740000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=29.74</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'F#', 'B']]</t>
+          <t>['A#:maj', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:13.880000')]</t>
+          <t>('0:01:06.060000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:31.259637', '0:02:37.900544')]</t>
+          <t>('0:00:05.800000', '0:00:15.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=5.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:01:07.100430', '0:01:15.018435')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:13.880000')]</t>
+          <t>('0:00:09.920000', '0:00:11.960000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:09.720000', '0:02:17.860000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000'), ('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:12.852267', '0:00:15.522562')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:01:21.100000', '0:01:27.580000')]</t>
+          <t>('0:03:07.440000', '0:03:10.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=12.852267</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:14.700000', '0:01:27.040000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
